--- a/output/Transitions Rule/facility_data/transition_rule_facility_demographics_1mi.xlsx
+++ b/output/Transitions Rule/facility_data/transition_rule_facility_demographics_1mi.xlsx
@@ -591,7 +591,7 @@
         <v>11.6754929677719</v>
       </c>
       <c r="R2" t="n">
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="S2" t="n">
         <v>0.525</v>
@@ -653,7 +653,7 @@
         <v>50</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -707,10 +707,10 @@
         <v>3.49961154043405</v>
       </c>
       <c r="R4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
-        <v>0.442857142857143</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -764,10 +764,10 @@
         <v>11.3261261510413</v>
       </c>
       <c r="R5" t="n">
-        <v>30</v>
+        <v>27.5</v>
       </c>
       <c r="S5" t="n">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="6">
@@ -821,7 +821,7 @@
         <v>0.595632031767042</v>
       </c>
       <c r="R6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S6" t="n">
         <v>0.3</v>
@@ -880,10 +880,10 @@
         <v>17.0960194669454</v>
       </c>
       <c r="R7" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S7" t="n">
-        <v>0.395</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -998,10 +998,10 @@
         <v>2.76124521801586</v>
       </c>
       <c r="R9" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -1057,10 +1057,10 @@
         <v>3.76813326109933</v>
       </c>
       <c r="R10" t="n">
-        <v>107.5</v>
+        <v>60</v>
       </c>
       <c r="S10" t="n">
-        <v>0.525</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11">
@@ -1114,10 +1114,10 @@
         <v>11.192393685832</v>
       </c>
       <c r="R11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
@@ -1174,7 +1174,7 @@
         <v>30</v>
       </c>
       <c r="S12" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
@@ -1230,10 +1230,10 @@
         <v>10.1720400019476</v>
       </c>
       <c r="R13" t="n">
-        <v>40</v>
+        <v>43.3333333333333</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +1289,7 @@
         <v>1.0644418872267</v>
       </c>
       <c r="R14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S14" t="n">
         <v>0.2</v>
@@ -1349,7 +1349,7 @@
         <v>30</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
